--- a/Project4103_A. Knyshov(2021).xlsx
+++ b/Project4103_A. Knyshov(2021).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F79F2B-3422-7547-BA0C-5DD114609A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC7B3D-A03C-4FF5-8B8E-2B00AA21C8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16455" yWindow="3900" windowWidth="15945" windowHeight="18375" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4103" sheetId="1" r:id="rId1"/>
@@ -624,55 +624,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9602</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C335FEB1-B94E-D74A-BEF5-9BD7BCBF3EA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7484533" y="325966"/>
-          <a:ext cx="10735734" cy="6677103"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -994,17 +945,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -1026,7 +975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +986,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1008,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1030,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1041,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1063,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1085,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +1096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1118,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1129,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1191,7 +1140,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1151,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1162,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1232,7 +1181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1243,7 +1192,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1203,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1214,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1276,7 +1225,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1287,7 +1236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1247,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1258,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1320,7 +1269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1280,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1342,7 +1291,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1302,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1364,7 +1313,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1375,7 +1324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1335,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1397,7 +1346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1357,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1368,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1430,7 +1379,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1441,7 +1390,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1452,7 +1401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +1412,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1474,7 +1423,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1485,7 +1434,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1496,7 +1445,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1507,7 +1456,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1518,7 +1467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1478,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1540,7 +1489,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1551,7 +1500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1562,7 +1511,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1522,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1581,7 +1530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1592,7 +1541,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1603,7 +1552,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1563,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1625,7 +1574,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1636,7 +1585,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1647,7 +1596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1658,7 +1607,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1666,7 +1615,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1677,7 +1626,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1685,7 +1634,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1696,7 +1645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1707,7 +1656,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1718,7 +1667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1729,7 +1678,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1740,7 +1689,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1751,7 +1700,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1773,7 +1722,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1784,7 +1733,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1795,7 +1744,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1806,7 +1755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1817,7 +1766,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1828,7 +1777,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1839,7 +1788,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1850,7 +1799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1861,7 +1810,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1872,7 +1821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1883,7 +1832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1894,7 +1843,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1905,7 +1854,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1916,7 +1865,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1927,7 +1876,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1938,7 +1887,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1949,7 +1898,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1960,7 +1909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1971,7 +1920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1982,7 +1931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1993,7 +1942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2004,7 +1953,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2015,7 +1964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2026,7 +1975,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2034,7 +1983,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2045,7 +1994,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2056,7 +2005,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2064,7 +2013,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2072,7 +2021,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2083,7 +2032,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2094,7 +2043,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2105,7 +2054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2116,7 +2065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2127,7 +2076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2138,7 +2087,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2149,7 +2098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2160,7 +2109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2171,7 +2120,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2182,7 +2131,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2193,7 +2142,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2204,7 +2153,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2215,7 +2164,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2226,7 +2175,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2237,7 +2186,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2248,7 +2197,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2259,7 +2208,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2270,7 +2219,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2281,7 +2230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2292,7 +2241,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2303,7 +2252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2314,7 +2263,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2325,7 +2274,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2336,7 +2285,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2347,7 +2296,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2358,7 +2307,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2366,7 +2315,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2377,7 +2326,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2388,7 +2337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2399,7 +2348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2410,7 +2359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2421,7 +2370,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2429,7 +2378,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2440,7 +2389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2451,7 +2400,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2462,7 +2411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2473,7 +2422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2484,7 +2433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2495,7 +2444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2506,7 +2455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2517,7 +2466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2528,7 +2477,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2539,7 +2488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2550,7 +2499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2561,7 +2510,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2572,7 +2521,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2583,7 +2532,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2594,7 +2543,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2605,7 +2554,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2616,7 +2565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2627,7 +2576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2638,7 +2587,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2649,7 +2598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2660,7 +2609,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2671,7 +2620,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2682,7 +2631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2690,7 +2639,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2701,7 +2650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2712,7 +2661,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2723,7 +2672,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2737,6 +2686,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>